--- a/p_ip_addresses.xlsx
+++ b/p_ip_addresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C76F8A6-DD29-4AF4-9DFB-5C3B7CC7C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37044A-785D-48B3-9182-5C0FEEF6538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{60FF3375-A682-41FD-853C-CCA18B144F95}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="305">
   <si>
     <t>DEVICE NAME</t>
   </si>
@@ -367,9 +367,6 @@
     <t>G0/1</t>
   </si>
   <si>
-    <t>IOT-WLAN2</t>
-  </si>
-  <si>
     <t>NOTE: THE TFTP, WEB1, 2 and WEB3 WERE MERGED</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>172.17.99.64/26</t>
   </si>
   <si>
-    <t>SW Fa0/1</t>
-  </si>
-  <si>
     <t>SERVERS</t>
   </si>
   <si>
@@ -485,21 +479,6 @@
   </si>
   <si>
     <t>WEB_3</t>
-  </si>
-  <si>
-    <t>IOT_SERVER</t>
-  </si>
-  <si>
-    <t>172.17.3.70</t>
-  </si>
-  <si>
-    <t>172.17.3.65</t>
-  </si>
-  <si>
-    <t>172.17.3.66</t>
-  </si>
-  <si>
-    <t>172.17.3.67</t>
   </si>
   <si>
     <t>WEB</t>
@@ -980,6 +959,24 @@
       </rPr>
       <t>DONE:)</t>
     </r>
+  </si>
+  <si>
+    <t>DATA_VLAN</t>
+  </si>
+  <si>
+    <t>G0/0.200</t>
+  </si>
+  <si>
+    <t>172.17.99.153</t>
+  </si>
+  <si>
+    <t>172.17.99.152</t>
+  </si>
+  <si>
+    <t>172.17.99.151</t>
+  </si>
+  <si>
+    <t>172.17.99.150</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1677,7 +1680,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1695,6 +1698,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1728,108 +1732,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="33" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="16"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1889,6 +1791,44 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="36" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="36" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="36" xfId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="35" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="36" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="37" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1898,20 +1838,85 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="36" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="37" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="38" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="40" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="40% - 5. jelölőszín" xfId="2" builtinId="47"/>
+    <cellStyle name="40% - 6. jelölőszín" xfId="17" builtinId="51"/>
     <cellStyle name="60% - 1. jelölőszín" xfId="13" builtinId="32"/>
     <cellStyle name="60% - 2. jelölőszín" xfId="9" builtinId="36"/>
     <cellStyle name="60% - 3. jelölőszín" xfId="11" builtinId="40"/>
@@ -2264,882 +2269,882 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="J2" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="65" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="C3" s="34">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="34">
+        <v>2046</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1022</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G3" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="H3" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="I3" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J3" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="66" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="69" t="s">
+      <c r="C4" s="50">
+        <v>512</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1022</v>
+      </c>
+      <c r="E4" s="50">
+        <v>510</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="68">
-        <v>1024</v>
-      </c>
-      <c r="D3" s="68">
-        <v>2046</v>
-      </c>
-      <c r="E3" s="68">
-        <v>1022</v>
-      </c>
-      <c r="F3" s="68" t="s">
+      <c r="G4" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="H4" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="I4" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="J4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="70" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="34">
+        <v>256</v>
+      </c>
+      <c r="D5" s="34">
+        <v>510</v>
+      </c>
+      <c r="E5" s="34">
+        <v>254</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="83" t="s">
+      <c r="G5" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="84">
-        <v>512</v>
-      </c>
-      <c r="D4" s="84">
-        <v>1022</v>
-      </c>
-      <c r="E4" s="84">
+      <c r="H5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="34">
+        <v>256</v>
+      </c>
+      <c r="D6" s="34">
         <v>510</v>
       </c>
-      <c r="F4" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="84" t="s">
+      <c r="E6" s="34">
+        <v>254</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="G6" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J6" s="36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="68">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="50">
+        <v>128</v>
+      </c>
+      <c r="D7" s="50">
+        <v>254</v>
+      </c>
+      <c r="E7" s="50">
+        <v>126</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="50">
+        <v>128</v>
+      </c>
+      <c r="D8" s="50">
+        <v>254</v>
+      </c>
+      <c r="E8" s="50">
+        <v>126</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="50">
+        <v>128</v>
+      </c>
+      <c r="D9" s="50">
+        <v>254</v>
+      </c>
+      <c r="E9" s="50">
+        <v>126</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="34">
+        <v>64</v>
+      </c>
+      <c r="D10" s="34">
+        <v>126</v>
+      </c>
+      <c r="E10" s="34">
+        <v>62</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="50">
+        <v>32</v>
+      </c>
+      <c r="D11" s="50">
+        <v>62</v>
+      </c>
+      <c r="E11" s="50">
+        <v>30</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="50">
+        <v>32</v>
+      </c>
+      <c r="D12" s="50">
+        <v>62</v>
+      </c>
+      <c r="E12" s="50">
+        <v>30</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="34">
+        <v>32</v>
+      </c>
+      <c r="D13" s="34">
+        <v>62</v>
+      </c>
+      <c r="E13" s="34">
+        <v>30</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="34">
+        <v>16</v>
+      </c>
+      <c r="D14" s="34">
+        <v>30</v>
+      </c>
+      <c r="E14" s="34">
+        <v>14</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="34">
+        <v>8</v>
+      </c>
+      <c r="D15" s="34">
+        <v>14</v>
+      </c>
+      <c r="E15" s="34">
+        <v>6</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="34">
+        <v>6</v>
+      </c>
+      <c r="D16" s="34">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34">
+        <v>2</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2</v>
+      </c>
+      <c r="D18" s="38">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="68">
-        <v>510</v>
-      </c>
-      <c r="E5" s="68">
-        <v>254</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="68">
-        <v>256</v>
-      </c>
-      <c r="D6" s="68">
-        <v>510</v>
-      </c>
-      <c r="E6" s="68">
-        <v>254</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="84">
-        <v>128</v>
-      </c>
-      <c r="D7" s="84">
-        <v>254</v>
-      </c>
-      <c r="E7" s="84">
-        <v>126</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="84">
-        <v>128</v>
-      </c>
-      <c r="D8" s="84">
-        <v>254</v>
-      </c>
-      <c r="E8" s="84">
-        <v>126</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="84">
-        <v>128</v>
-      </c>
-      <c r="D9" s="84">
-        <v>254</v>
-      </c>
-      <c r="E9" s="84">
-        <v>126</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="68">
-        <v>64</v>
-      </c>
-      <c r="D10" s="68">
-        <v>126</v>
-      </c>
-      <c r="E10" s="68">
-        <v>62</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="84">
-        <v>32</v>
-      </c>
-      <c r="D11" s="84">
-        <v>62</v>
-      </c>
-      <c r="E11" s="84">
-        <v>30</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="84">
-        <v>32</v>
-      </c>
-      <c r="D12" s="84">
-        <v>62</v>
-      </c>
-      <c r="E12" s="84">
-        <v>30</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="68">
-        <v>32</v>
-      </c>
-      <c r="D13" s="68">
-        <v>62</v>
-      </c>
-      <c r="E13" s="68">
-        <v>30</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="J13" s="70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="68">
-        <v>16</v>
-      </c>
-      <c r="D14" s="68">
-        <v>30</v>
-      </c>
-      <c r="E14" s="68">
-        <v>14</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="68">
-        <v>8</v>
-      </c>
-      <c r="D15" s="68">
-        <v>14</v>
-      </c>
-      <c r="E15" s="68">
-        <v>6</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="68">
-        <v>6</v>
-      </c>
-      <c r="D16" s="68">
-        <v>6</v>
-      </c>
-      <c r="E16" s="68">
-        <v>2</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="68">
-        <v>2</v>
-      </c>
-      <c r="D17" s="68">
-        <v>2</v>
-      </c>
-      <c r="E17" s="68">
-        <v>0</v>
-      </c>
-      <c r="F17" s="68" t="s">
+      <c r="J18" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="72">
-        <v>2</v>
-      </c>
-      <c r="D18" s="72">
-        <v>2</v>
-      </c>
-      <c r="E18" s="72">
-        <v>0</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
+      <c r="D23" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="43"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="76" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="43"/>
+      <c r="I24" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="L21" s="76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="69" t="s">
+      <c r="K24" s="33"/>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D25" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="43"/>
+      <c r="I25" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="I26" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="40"/>
+      <c r="D29" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
+      <c r="D31" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="43"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="43"/>
+      <c r="I32" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="43"/>
+      <c r="I33" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="I34" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="37" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="40"/>
+      <c r="D38" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F39" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="K22" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="69"/>
-      <c r="D23" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="77"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="K23" s="67"/>
-      <c r="L23" s="77"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="77"/>
-      <c r="I24" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="77"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="77"/>
-      <c r="I25" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="77"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="I26" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="74"/>
-      <c r="D29" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="J30" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="90" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="69"/>
-      <c r="D31" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="77"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="77"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="77"/>
-      <c r="I32" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="K32" s="67"/>
-      <c r="L32" s="77"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="77"/>
-      <c r="I33" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="77"/>
-    </row>
-    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="71" t="s">
+      <c r="K39" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="35"/>
+      <c r="D40" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="43"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="43"/>
+      <c r="I41" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="I34" s="71" t="s">
+      <c r="K41" s="33"/>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="78" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="43"/>
+      <c r="I42" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
-    </row>
-    <row r="37" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="74"/>
-      <c r="D38" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" s="76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="69" t="s">
+      <c r="K42" s="33"/>
+      <c r="L42" s="43"/>
+    </row>
+    <row r="43" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D43" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="E39" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="69" t="s">
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="I43" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="K39" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="91" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="69"/>
-      <c r="D40" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="77"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="77"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" s="67" t="s">
+      <c r="J43" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="77"/>
-      <c r="I41" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="J41" s="67" t="s">
+      <c r="K43" s="33"/>
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="K41" s="67"/>
-      <c r="L41" s="77"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" s="67" t="s">
+      <c r="J44" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="77"/>
-      <c r="I42" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="J42" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="77"/>
-    </row>
-    <row r="43" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="I43" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="J43" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="K43" s="67"/>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I44" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="K44" s="78"/>
-      <c r="L44" s="79"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3151,7 +3156,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,79 +3200,79 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="10"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="60" t="s">
         <v>103</v>
       </c>
       <c r="G3" s="10"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>123</v>
+      <c r="D4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>122</v>
       </c>
       <c r="G4" s="10"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>124</v>
+      <c r="C5" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
@@ -3277,451 +3282,371 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="96" t="s">
+      <c r="C6" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>125</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>126</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
+      <c r="L6" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="83"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="96" t="s">
+      <c r="C7" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="96" t="s">
+      <c r="C8" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="G8" s="5"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="96" t="s">
+      <c r="F9" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="L9" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="L9" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="96" t="s">
+      <c r="E12" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="96" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="96" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="96" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="98"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="98"/>
+      <c r="A17" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>172</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="96" t="s">
+      <c r="F20" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>183</v>
-      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>185</v>
-      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="98"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="98"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="98"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="98"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="98"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="98"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="98"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="98"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="98"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="98"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="98"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3776,16 +3701,16 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3800,7 +3725,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3813,14 +3738,14 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -3835,7 +3760,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3773,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3871,7 +3796,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
@@ -3900,7 +3825,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="94" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3909,104 +3834,104 @@
       <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="95" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="90" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="50"/>
+        <v>160</v>
+      </c>
+      <c r="D17" s="92"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -4071,11 +3996,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -4111,7 +4036,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -4125,7 +4050,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="12" t="s">
         <v>62</v>
       </c>
@@ -4137,7 +4062,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="12" t="s">
         <v>64</v>
       </c>
@@ -4149,7 +4074,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="12" t="s">
         <v>63</v>
       </c>
@@ -4218,11 +4143,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -4231,7 +4156,7 @@
       <c r="B21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="99" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4242,7 +4167,7 @@
       <c r="B22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="99"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -4251,19 +4176,19 @@
       <c r="B23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="99"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="5">
